--- a/kra_master_database.xlsx
+++ b/kra_master_database.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,107 +480,199 @@
           <t>record_id</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Merged_From_Count</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Merge_Sources</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Best_Score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Pre-Amount</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>pin</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>taxpayerName</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>preAmount</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>finalAmount</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>officerName</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>station</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>04th September, 2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A123456789X</t>
+          <t>A005977112Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Test User</t>
+          <t>James Mutoro Kitui</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Test Officer</t>
+          <t>Franciscar Nyangweta</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Test Station</t>
+          <t>KITALE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-21 22:51:45</t>
+          <t>2025-09-21 22:53:29</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>test_app</t>
+          <t>multi_format_extractor</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4th September, 2025</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A009775891W</t>
+          <t>A123456789X</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ezekiel Kipserem Korir</t>
+          <t>Test User</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Franciscar Nyangweta</t>
+          <t>Test Officer</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>KITALE</t>
+          <t>Test Station</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-21 22:53:29</t>
+          <t>2025-09-21 22:51:45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>multi_format_extractor</t>
+          <t>test_app</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04th September, 2025</t>
+          <t>4th September, 2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A005977112Z</t>
+          <t>A009775891W</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>James Mutoro Kitui</t>
+          <t>Ezekiel Kipserem Korir</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -607,8 +699,20 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +756,18 @@
       <c r="I5" t="n">
         <v>4</v>
       </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -695,6 +811,18 @@
       <c r="I6" t="n">
         <v>5</v>
       </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -738,6 +866,18 @@
       <c r="I7" t="n">
         <v>6</v>
       </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -781,6 +921,18 @@
       <c r="I8" t="n">
         <v>7</v>
       </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -824,6 +976,18 @@
       <c r="I9" t="n">
         <v>8</v>
       </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -867,6 +1031,18 @@
       <c r="I10" t="n">
         <v>9</v>
       </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -884,10 +1060,8 @@
           <t>Daisy Jepkosgei Biwott</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D11" t="n">
+        <v>2024</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -911,6 +1085,138 @@
       </c>
       <c r="I11" t="n">
         <v>10</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>A123456789X</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Peter Kimutai Telengech</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NAIROBI</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-09-22 08:40:33</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>test_pre_amount</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>11</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>14,769.50</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-09-22 08:52:05</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>camelCase_test</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2024-09-22</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>A123456789X</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>John Doe Test</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>14,769.50</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Test Officer</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NAIROBI</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -951,7 +1257,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -962,7 +1268,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-09-21 22:55:37</t>
+          <t>2025-09-22 08:52:05</t>
         </is>
       </c>
     </row>
@@ -992,11 +1298,7 @@
           <t>Date Range (Earliest)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>04TH September, 2025</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1006,7 +1308,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4th September, 2025</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1319,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1027,7 +1329,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/kra_master_database.xlsx
+++ b/kra_master_database.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,21 @@
           <t>record_id</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Merged_From_Count</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Merge_Sources</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Best_Score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -535,6 +550,17 @@
       <c r="K2" t="n">
         <v>3</v>
       </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -558,10 +584,8 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="F3" t="n">
+        <v>2024</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -585,6 +609,505 @@
       </c>
       <c r="K3" t="n">
         <v>2</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>04TH September, 2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A018905312S</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Daisy Jepkosgei Biwott</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Franciscar Nyangweta</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>KITALE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-09-22 11:25:52</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>multi_format_extractor</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4th September, 2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A009775891W</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ezekiel Kipserem Korir</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Franciscar Nyangweta</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>KITALE</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-09-22 11:25:52</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>multi_format_extractor</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>04th September, 2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A004578892U</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>JESSY KAGONDU WAMBUGU</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Franciscar Nyangweta</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>KITALE</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-09-22 11:25:52</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>multi_format_extractor</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04th September, 2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>A008596925K</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>KELVIN KIPKEMBOI MUTAI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Franciscar Nyangweta</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>KITALE</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-09-22 11:25:52</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>multi_format_extractor</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10th September, 2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>A007388222W</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MICHAEL MWANGI MUCHUNGI</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Franciscar Nyangweta</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>KITALE</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-09-22 11:25:52</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>multi_format_extractor</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04th September, 2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A012209532N</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Paul Chotomolo Mirikwa</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Franciscar Nyangweta</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NAITIRI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-09-22 11:25:52</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>multi_format_extractor</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>29TH AUGUST, 2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A001126762Z</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Peter Kimutai Telengech</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Franciscar Nyangweta</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ELDORET</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-09-22 11:25:52</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>multi_format_extractor</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>04th September, 2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>A005615142S</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>THOMAS JUMA SIKUKU</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Franciscar Nyangweta</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>KITALE</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-09-22 11:25:52</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>multi_format_extractor</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>94.8</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +1148,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -636,7 +1159,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-09-22 09:11:27</t>
+          <t>2025-09-22 11:25:52</t>
         </is>
       </c>
     </row>
@@ -647,7 +1170,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -657,7 +1180,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -668,7 +1191,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>04th September, 2025</t>
+          <t>04TH September, 2025</t>
         </is>
       </c>
     </row>
@@ -680,7 +1203,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>4th September, 2025</t>
         </is>
       </c>
     </row>
@@ -691,7 +1214,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -701,7 +1224,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/kra_master_database.xlsx
+++ b/kra_master_database.xlsx
@@ -565,22 +565,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>04TH September, 2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A123456789X</t>
+          <t>A018905312S</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Test User After Migration</t>
+          <t>Daisy Jepkosgei Biwott</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15,000.00</t>
+          <t>2025.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -589,45 +589,53 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Test Officer</t>
+          <t>Franciscar Nyangweta</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>NAIROBI</t>
+          <t>KITALE</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-09-22 09:11:27</t>
+          <t>2025-09-22 11:25:52</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>post_migration_test</t>
+          <t>multi_format_extractor</t>
         </is>
       </c>
       <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
         <v>2</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04TH September, 2025</t>
+          <t>4th September, 2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A018905312S</t>
+          <t>A009775891W</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Daisy Jepkosgei Biwott</t>
+          <t>Ezekiel Kipserem Korir</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -636,10 +644,8 @@
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="F4" t="n">
+        <v>2024</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -662,7 +668,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
@@ -673,23 +679,23 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>94.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4th September, 2025</t>
+          <t>04th September, 2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A009775891W</t>
+          <t>A004578892U</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ezekiel Kipserem Korir</t>
+          <t>JESSY KAGONDU WAMBUGU</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -698,10 +704,8 @@
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="F5" t="n">
+        <v>2024</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -724,7 +728,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -735,7 +739,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>94.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -746,12 +750,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A004578892U</t>
+          <t>A008596925K</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JESSY KAGONDU WAMBUGU</t>
+          <t>KELVIN KIPKEMBOI MUTAI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -760,10 +764,8 @@
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="F6" t="n">
+        <v>2024</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -786,7 +788,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
@@ -797,23 +799,23 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>94.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04th September, 2025</t>
+          <t>10th September, 2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A008596925K</t>
+          <t>A007388222W</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>KELVIN KIPKEMBOI MUTAI</t>
+          <t>MICHAEL MWANGI MUCHUNGI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -822,10 +824,8 @@
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="F7" t="n">
+        <v>2024</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
         <v>2</v>
@@ -859,23 +859,23 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>94.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10th September, 2025</t>
+          <t>04th September, 2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A007388222W</t>
+          <t>A012209532N</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MICHAEL MWANGI MUCHUNGI</t>
+          <t>Paul Chotomolo Mirikwa</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -884,10 +884,8 @@
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="F8" t="n">
+        <v>2024</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -896,7 +894,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>KITALE</t>
+          <t>NAITIRI</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -910,7 +908,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -921,23 +919,23 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>94.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04th September, 2025</t>
+          <t>29TH AUGUST, 2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A012209532N</t>
+          <t>A001126762Z</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Paul Chotomolo Mirikwa</t>
+          <t>Peter Kimutai Telengech</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -946,10 +944,8 @@
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="F9" t="n">
+        <v>2024</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -958,7 +954,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>NAITIRI</t>
+          <t>ELDORET</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -972,7 +968,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
@@ -983,35 +979,33 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>94.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>29TH AUGUST, 2025</t>
+          <t>04th September, 2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A001126762Z</t>
+          <t>A005615142S</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Peter Kimutai Telengech</t>
+          <t>THOMAS JUMA SIKUKU</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025.</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="F10" t="n">
+        <v>2024</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1020,7 +1014,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ELDORET</t>
+          <t>KITALE</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1034,7 +1028,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
@@ -1045,70 +1039,60 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>94.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04th September, 2025</t>
+          <t>2024-09-22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A005615142S</t>
+          <t>A123456789X</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>THOMAS JUMA SIKUKU</t>
+          <t>Test User After Migration</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>15,000.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="F11" t="n">
+        <v>2024</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Franciscar Nyangweta</t>
+          <t>Test Officer</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>KITALE</t>
+          <t>NAIROBI</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-09-22 11:25:52</t>
+          <t>2025-09-22 09:11:27</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>multi_format_extractor</t>
+          <t>post_migration_test</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>11</v>
-      </c>
-      <c r="L11" t="n">
         <v>2</v>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Unknown, Unknown</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>94.8</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1159,7 +1143,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-09-22 11:25:52</t>
+          <t>2025-09-22 12:16:12</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1154,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">

--- a/kra_master_database.xlsx
+++ b/kra_master_database.xlsx
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-09-22 12:16:12</t>
+          <t>2025-09-22 12:29:53</t>
         </is>
       </c>
     </row>

--- a/kra_master_database.xlsx
+++ b/kra_master_database.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,235 +452,209 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>notice</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>preAmount</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>finalAmount</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>officerName</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>station</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>date_extracted</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>source_app</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>record_id</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Merged_From_Count</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Merge_Sources</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Best_Score</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04th September, 2025</t>
+          <t>5TH September, 2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A005977112Z</t>
+          <t>A008441178T</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>James Mutoro Kitui</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>2024</v>
-      </c>
+          <t>CAROLYNE JEPKEMOI KOMEN</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PRE-ASSESSMENT NOTICE UNDER SECTION 29 OF THE TAX PROCEDURES ACT, 2015</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>370,756.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Franciscar Nyangweta</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>KITALE</t>
+          <t>Sharon Cheruiyot</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-09-21 22:53:29</t>
+          <t>ELDORET</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>2025-09-22 15:47:51</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>multi_format_extractor</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
       <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Unknown, Unknown</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04TH September, 2025</t>
+          <t>12TH September, 2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A018905312S</t>
+          <t>A008441178T</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Daisy Jepkosgei Biwott</t>
+          <t>CAROLYNE JEPKEMOI KOMEN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+          <t>PRE-ASSESSMENT NOTICE UNDER SECTION 29 OF THE TAX PROCEDURES ACT, 2015</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>370,756.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>2024</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Franciscar Nyangweta</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>KITALE</t>
+          <t>Sharon Cheruiyot</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-09-22 11:25:52</t>
+          <t>ELDORET</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>2025-09-22 15:31:53</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>multi_format_extractor</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Unknown, Unknown</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4th September, 2025</t>
+          <t>12TH September, 2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A009775891W</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ezekiel Kipserem Korir</t>
-        </is>
-      </c>
+          <t>A008441178T</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
+          <t>PRE-ASSESSMENT NOTICE UNDER SECTION 29 OF THE TAX PROCEDURES ACT, 2015</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>370,756.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
         <v>2024</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Franciscar Nyangweta</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>KITALE</t>
+          <t>Sharon Cheruiyot</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-09-22 11:25:52</t>
+          <t>ELDORET</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>2025-09-22 15:24:28</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>multi_format_extractor</t>
         </is>
-      </c>
-      <c r="K4" t="n">
-        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Unknown, Unknown</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -700,399 +674,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
+          <t>NOTICE UNDER SECTION 29 OF THE TAX PROCEDURES ACT, 2015</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>118,561.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
         <v>2024</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Franciscar Nyangweta</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>KITALE</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-09-22 11:25:52</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>2025-09-22 15:24:22</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>multi_format_extractor</t>
         </is>
-      </c>
-      <c r="K5" t="n">
-        <v>6</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Unknown, Unknown</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>04th September, 2025</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>A008596925K</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>KELVIN KIPKEMBOI MUTAI</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2025.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Franciscar Nyangweta</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>KITALE</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-09-22 11:25:52</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>multi_format_extractor</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Unknown, Unknown</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>10th September, 2025</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>A007388222W</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MICHAEL MWANGI MUCHUNGI</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Franciscar Nyangweta</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>KITALE</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-09-22 11:25:52</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>multi_format_extractor</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Unknown, Unknown</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>04th September, 2025</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>A012209532N</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Paul Chotomolo Mirikwa</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2025.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Franciscar Nyangweta</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NAITIRI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-09-22 11:25:52</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>multi_format_extractor</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>9</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Unknown, Unknown</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>29TH AUGUST, 2025</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>A001126762Z</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Peter Kimutai Telengech</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2025.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Franciscar Nyangweta</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ELDORET</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2025-09-22 11:25:52</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>multi_format_extractor</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Unknown, Unknown</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>04th September, 2025</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>A005615142S</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>THOMAS JUMA SIKUKU</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Franciscar Nyangweta</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>KITALE</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2025-09-22 11:25:52</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>multi_format_extractor</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>11</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Unknown, Unknown</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2024-09-22</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>A123456789X</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Test User After Migration</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>15,000.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Test Officer</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>NAIROBI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2025-09-22 09:11:27</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>post_migration_test</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1132,7 +748,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1143,7 +759,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-09-22 12:29:53</t>
+          <t>2025-09-22 15:47:51</t>
         </is>
       </c>
     </row>
@@ -1175,7 +791,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>04TH September, 2025</t>
+          <t>04th September, 2025</t>
         </is>
       </c>
     </row>
@@ -1187,7 +803,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4th September, 2025</t>
+          <t>5TH September, 2025</t>
         </is>
       </c>
     </row>
@@ -1198,7 +814,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1208,7 +824,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/kra_master_database.xlsx
+++ b/kra_master_database.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,27 +499,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5TH September, 2025</t>
+          <t>29TH AUGUST, 2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A008441178T</t>
+          <t>A001126762Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CAROLYNE JEPKEMOI KOMEN</t>
+          <t>Peter Kimutai Telengech</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRE-ASSESSMENT NOTICE UNDER SECTION 29 OF THE TAX PROCEDURES ACT, 2015</t>
+          <t>NOTICE UNDER SECTION 29 OF THE TAX PROCEDURES ACT, 2015</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>370,756.00</t>
+          <t>14,769.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -530,7 +530,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sharon Cheruiyot</t>
+          <t>Franciscar Nyangweta</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-09-22 15:47:51</t>
+          <t>2025-09-26 11:25:36</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -549,33 +549,33 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12TH September, 2025</t>
+          <t>04th September, 2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A008441178T</t>
+          <t>A012209532N</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CAROLYNE JEPKEMOI KOMEN</t>
+          <t>Paul Chotomolo Mirikwa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PRE-ASSESSMENT NOTICE UNDER SECTION 29 OF THE TAX PROCEDURES ACT, 2015</t>
+          <t>NOTICE UNDER SECTION 29 OF THE TAX PROCEDURES ACT, 2015</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>370,756.00</t>
+          <t>74,468.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -584,17 +584,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sharon Cheruiyot</t>
+          <t>Franciscar Nyangweta</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ELDORET</t>
+          <t>NAITIRI</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-09-22 15:31:53</t>
+          <t>2025-09-26 11:22:11</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -603,29 +603,33 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12TH September, 2025</t>
+          <t>04th September, 2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A008441178T</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>A004578892U</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>JESSY KAGONDU WAMBUGU</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRE-ASSESSMENT NOTICE UNDER SECTION 29 OF THE TAX PROCEDURES ACT, 2015</t>
+          <t>NOTICE UNDER SECTION 29 OF THE TAX PROCEDURES ACT, 2015</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>370,756.00</t>
+          <t>118,561.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -634,17 +638,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sharon Cheruiyot</t>
+          <t>Franciscar Nyangweta</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ELDORET</t>
+          <t>KITALE</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-09-22 15:24:28</t>
+          <t>2025-09-26 10:42:57</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -653,23 +657,23 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04th September, 2025</t>
+          <t>04TH September, 2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A004578892U</t>
+          <t>A018905312S</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JESSY KAGONDU WAMBUGU</t>
+          <t>Daisy Jepkosgei Biwott</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -679,7 +683,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>118,561.81</t>
+          <t>1,348,612.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -698,7 +702,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-09-22 15:24:22</t>
+          <t>2025-09-26 10:37:58</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -707,7 +711,115 @@
         </is>
       </c>
       <c r="L5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4th September, 2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A009775891W</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ezekiel Kipserem Korir</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NOTICE UNDER SECTION 29 OF THE TAX PROCEDURES ACT, 2015</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>238,640.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Franciscar Nyangweta</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>KITALE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-09-26 10:37:58</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>multi_format_extractor</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04th September, 2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>A005977112Z</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>James Mutoro Kitui</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NOTICE UNDER SECTION 29 OF THE TAX PROCEDURES ACT, 2015</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68,547.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Franciscar Nyangweta</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>KITALE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-09-26 10:37:58</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>multi_format_extractor</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +860,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -759,7 +871,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-09-22 15:47:51</t>
+          <t>2025-09-26 11:25:36</t>
         </is>
       </c>
     </row>
@@ -780,7 +892,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -791,7 +903,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>04th September, 2025</t>
+          <t>04TH September, 2025</t>
         </is>
       </c>
     </row>
@@ -803,7 +915,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5TH September, 2025</t>
+          <t>4th September, 2025</t>
         </is>
       </c>
     </row>
@@ -814,7 +926,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -824,7 +936,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
